--- a/Mappings/AbilityToWashOneself - STU3.xlsx
+++ b/Mappings/AbilityToWashOneself - STU3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F13344-0420-423A-AD46-CC2702A30B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4DBFB-844C-4ECF-A17A-E5888AFCA3D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t>Subject</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>value for .code is missing</t>
-  </si>
-  <si>
     <t>.valueCodeableConcept</t>
   </si>
   <si>
@@ -502,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -540,20 +537,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,11 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -642,11 +627,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -690,12 +674,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -703,9 +684,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -22793,7 +22773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23228,10 +23208,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -30394,7 +30374,7 @@
   <dimension ref="B2:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30495,9 +30475,7 @@
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="18" t="s">
-        <v>150</v>
-      </c>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
@@ -30533,16 +30511,16 @@
         <v>83</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R4" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="19"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
@@ -30578,17 +30556,17 @@
         <v>91</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="19" t="s">
-        <v>154</v>
+      <c r="T5" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -30620,15 +30598,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -30726,15 +30704,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
